--- a/data/trans_orig/P57GLOBAL_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57GLOBAL_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1D18AEF-7B26-46A1-880B-BDDEA3525846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7410D49F-3C33-4BAD-826E-19EC1CD00DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E2E3F01F-83B1-4713-8BD2-F631D81A3641}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{85CA4C5F-B545-4017-8431-085D5592AE52}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 en 2007 (Tasa respuesta: 99,88%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2007 (Tasa respuesta: 99,88%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>23,55%</t>
   </si>
   <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
   </si>
   <si>
     <t>25,66%</t>
   </si>
   <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
@@ -107,28 +107,28 @@
     <t>76,45%</t>
   </si>
   <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
   </si>
   <si>
     <t>72,69%</t>
   </si>
   <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
   </si>
   <si>
     <t>74,34%</t>
   </si>
   <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>10,25%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
   </si>
   <si>
     <t>14,61%</t>
   </si>
   <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
   </si>
   <si>
     <t>12,36%</t>
   </si>
   <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
   </si>
   <si>
     <t>89,75%</t>
   </si>
   <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
   </si>
   <si>
     <t>85,39%</t>
   </si>
   <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
   </si>
   <si>
     <t>87,64%</t>
   </si>
   <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,70 +197,70 @@
     <t>10,15%</t>
   </si>
   <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
   </si>
   <si>
     <t>10,33%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
   </si>
   <si>
     <t>89,85%</t>
   </si>
   <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
   <si>
     <t>89,45%</t>
   </si>
   <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
   </si>
   <si>
     <t>89,67%</t>
   </si>
   <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
   </si>
   <si>
     <t>14,43%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
   </si>
   <si>
     <t>18,99%</t>
   </si>
   <si>
-    <t>17,58%</t>
+    <t>17,78%</t>
   </si>
   <si>
     <t>20,44%</t>
@@ -269,19 +269,19 @@
     <t>16,74%</t>
   </si>
   <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
   </si>
   <si>
     <t>85,57%</t>
   </si>
   <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
   </si>
   <si>
     <t>81,01%</t>
@@ -290,82 +290,82 @@
     <t>79,56%</t>
   </si>
   <si>
-    <t>82,42%</t>
+    <t>82,22%</t>
   </si>
   <si>
     <t>83,26%</t>
   </si>
   <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 en 2012 (Tasa respuesta: 98,91%)</t>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2012 (Tasa respuesta: 98,91%)</t>
   </si>
   <si>
     <t>21,86%</t>
   </si>
   <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
   </si>
   <si>
     <t>21,72%</t>
   </si>
   <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
   </si>
   <si>
     <t>21,78%</t>
   </si>
   <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
   </si>
   <si>
     <t>78,14%</t>
   </si>
   <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
   </si>
   <si>
     <t>78,28%</t>
   </si>
   <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
   </si>
   <si>
     <t>78,22%</t>
   </si>
   <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
   </si>
   <si>
     <t>14,49%</t>
   </si>
   <si>
-    <t>12,71%</t>
+    <t>12,79%</t>
   </si>
   <si>
     <t>16,12%</t>
@@ -374,19 +374,19 @@
     <t>16,68%</t>
   </si>
   <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
   </si>
   <si>
     <t>85,51%</t>
@@ -395,547 +395,535 @@
     <t>83,88%</t>
   </si>
   <si>
-    <t>87,29%</t>
+    <t>87,21%</t>
   </si>
   <si>
     <t>83,32%</t>
   </si>
   <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
   </si>
   <si>
     <t>84,48%</t>
   </si>
   <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
   </si>
   <si>
     <t>11,62%</t>
   </si>
   <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>88,38%</t>
   </si>
   <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
   </si>
   <si>
     <t>90,57%</t>
   </si>
   <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
   <si>
     <t>16,17%</t>
   </si>
   <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
   </si>
   <si>
     <t>17,64%</t>
   </si>
   <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>83,83%</t>
   </si>
   <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
   </si>
   <si>
     <t>82,36%</t>
   </si>
   <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
   </si>
   <si>
     <t>83,08%</t>
   </si>
   <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 en 2015 (Tasa respuesta: 99,15%)</t>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2015 (Tasa respuesta: 99,15%)</t>
   </si>
   <si>
     <t>22,71%</t>
   </si>
   <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
   </si>
   <si>
     <t>25,9%</t>
   </si>
   <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
   </si>
   <si>
     <t>24,52%</t>
   </si>
   <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
   </si>
   <si>
     <t>77,29%</t>
   </si>
   <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
   </si>
   <si>
     <t>74,1%</t>
   </si>
   <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
   </si>
   <si>
     <t>75,48%</t>
   </si>
   <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
   </si>
   <si>
     <t>15,53%</t>
   </si>
   <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2023 (Tasa respuesta: 98,07%)</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
     <t>13,75%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
   </si>
   <si>
     <t>86,25%</t>
   </si>
   <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 en 2023 (Tasa respuesta: 98,07%)</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
+    <t>85,49%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA91662F-9CD1-4D92-BFB5-B1151E0D3CAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2C60BC-9B0A-49D8-AC21-67CC1F0850CD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2098,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A9CF51-60BD-4A42-830A-80EBE48B6CEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F863DF-1AC6-478C-A66B-C37FC0FD8993}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2849,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D029AC-E1A1-4032-A7B1-89363AD36E20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E9795C-B7CC-491F-B13F-BCB84BD60F67}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3149,7 +3137,7 @@
         <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="M7" s="7">
         <v>592</v>
@@ -3158,13 +3146,13 @@
         <v>636983</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3167,13 @@
         <v>1738908</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>1595</v>
@@ -3194,13 +3182,13 @@
         <v>1653164</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>3236</v>
@@ -3209,13 +3197,13 @@
         <v>3392073</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3271,13 @@
         <v>59782</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>56</v>
@@ -3298,13 +3286,13 @@
         <v>60564</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -3313,13 +3301,13 @@
         <v>120346</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3322,13 @@
         <v>484271</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>462</v>
@@ -3349,13 +3337,13 @@
         <v>479286</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>909</v>
@@ -3364,13 +3352,13 @@
         <v>963558</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3426,13 @@
         <v>549569</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>578</v>
@@ -3453,13 +3441,13 @@
         <v>633142</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>75</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>1102</v>
@@ -3468,13 +3456,13 @@
         <v>1182711</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3477,13 @@
         <v>2801691</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>2715</v>
@@ -3504,13 +3492,13 @@
         <v>2863180</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>5383</v>
@@ -3519,13 +3507,13 @@
         <v>5664871</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A51DF2-170A-4E8C-A135-D9975D4A2C7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2DB7DD-0C99-4FAE-9C4B-617485C70658}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,13 +3712,13 @@
         <v>133433</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>394</v>
@@ -3739,13 +3727,13 @@
         <v>226646</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>570</v>
@@ -3754,13 +3742,13 @@
         <v>360079</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3763,13 @@
         <v>395270</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>982</v>
@@ -3790,13 +3778,13 @@
         <v>581134</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>1480</v>
@@ -3805,13 +3793,13 @@
         <v>976404</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3867,13 @@
         <v>250719</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>367</v>
@@ -3894,13 +3882,13 @@
         <v>252504</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>637</v>
@@ -3909,13 +3897,13 @@
         <v>503223</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3918,13 @@
         <v>1888314</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>2510</v>
@@ -3945,13 +3933,13 @@
         <v>1852953</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>4210</v>
@@ -3960,13 +3948,13 @@
         <v>3741267</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4022,13 @@
         <v>48394</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -4049,13 +4037,13 @@
         <v>43940</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -4064,13 +4052,13 @@
         <v>92334</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4073,13 @@
         <v>610724</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>933</v>
@@ -4100,13 +4088,13 @@
         <v>664376</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>1546</v>
@@ -4115,13 +4103,13 @@
         <v>1275100</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>205</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4177,13 @@
         <v>432545</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>182</v>
       </c>
       <c r="H13" s="7">
         <v>822</v>
@@ -4204,13 +4192,13 @@
         <v>523091</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>1321</v>
@@ -4219,13 +4207,13 @@
         <v>955636</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>130</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4228,13 @@
         <v>2894309</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>4425</v>
@@ -4255,13 +4243,13 @@
         <v>3098462</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>7236</v>
@@ -4270,13 +4258,13 @@
         <v>5992771</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P57GLOBAL_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57GLOBAL_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7410D49F-3C33-4BAD-826E-19EC1CD00DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDD70611-2561-49E6-882A-0C319225DAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{85CA4C5F-B545-4017-8431-085D5592AE52}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7641C83E-8975-4A74-B538-486A2990A2B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2007 (Tasa respuesta: 99,88%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>23,55%</t>
   </si>
   <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
   </si>
   <si>
     <t>25,66%</t>
   </si>
   <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
@@ -107,28 +107,28 @@
     <t>76,45%</t>
   </si>
   <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
   </si>
   <si>
     <t>72,69%</t>
   </si>
   <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
   </si>
   <si>
     <t>74,34%</t>
   </si>
   <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>10,25%</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
   </si>
   <si>
     <t>14,61%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
   </si>
   <si>
     <t>12,36%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
   </si>
   <si>
     <t>89,75%</t>
   </si>
   <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
   </si>
   <si>
     <t>85,39%</t>
   </si>
   <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
   </si>
   <si>
     <t>87,64%</t>
   </si>
   <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>10,15%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
   </si>
   <si>
     <t>10,33%</t>
   </si>
   <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
   </si>
   <si>
     <t>89,85%</t>
   </si>
   <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
   </si>
   <si>
     <t>89,45%</t>
   </si>
   <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
   </si>
   <si>
     <t>89,67%</t>
   </si>
   <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
   </si>
   <si>
     <t>14,43%</t>
   </si>
   <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
   </si>
   <si>
     <t>18,99%</t>
   </si>
   <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
   </si>
   <si>
     <t>16,74%</t>
   </si>
   <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
   </si>
   <si>
     <t>85,57%</t>
   </si>
   <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
   </si>
   <si>
     <t>81,01%</t>
   </si>
   <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
   </si>
   <si>
     <t>83,26%</t>
   </si>
   <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,601 +311,607 @@
     <t>21,86%</t>
   </si>
   <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
   </si>
   <si>
     <t>21,72%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
   </si>
   <si>
     <t>21,78%</t>
   </si>
   <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
   </si>
   <si>
     <t>78,14%</t>
   </si>
   <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
   </si>
   <si>
     <t>78,28%</t>
   </si>
   <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
   </si>
   <si>
     <t>78,22%</t>
   </si>
   <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
   </si>
   <si>
     <t>14,49%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
   </si>
   <si>
     <t>16,68%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
   </si>
   <si>
     <t>85,51%</t>
   </si>
   <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
   </si>
   <si>
     <t>83,32%</t>
   </si>
   <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
   </si>
   <si>
     <t>84,48%</t>
   </si>
   <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
   </si>
   <si>
     <t>11,62%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>6,68%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
     <t>88,38%</t>
   </si>
   <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
   <si>
     <t>90,57%</t>
   </si>
   <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
     <t>87,06%</t>
   </si>
   <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
+    <t>91,47%</t>
   </si>
   <si>
     <t>16,17%</t>
   </si>
   <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
   </si>
   <si>
     <t>17,64%</t>
   </si>
   <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
   </si>
   <si>
     <t>83,83%</t>
   </si>
   <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>82,36%</t>
   </si>
   <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
   <si>
     <t>83,08%</t>
   </si>
   <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2015 (Tasa respuesta: 99,15%)</t>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2016 (Tasa respuesta: 99,15%)</t>
   </si>
   <si>
     <t>22,71%</t>
   </si>
   <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
   </si>
   <si>
     <t>25,9%</t>
   </si>
   <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
   </si>
   <si>
     <t>24,52%</t>
   </si>
   <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
   </si>
   <si>
     <t>77,29%</t>
   </si>
   <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
   </si>
   <si>
     <t>74,1%</t>
   </si>
   <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>75,48%</t>
   </si>
   <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
   </si>
   <si>
     <t>15,53%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2023 (Tasa respuesta: 98,07%)</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
   </si>
   <si>
     <t>85,76%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2023 (Tasa respuesta: 98,07%)</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
   </si>
   <si>
     <t>88,3%</t>
@@ -1335,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2C60BC-9B0A-49D8-AC21-67CC1F0850CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9714C050-488F-4EAA-A7CD-E0080F1A5271}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2086,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F863DF-1AC6-478C-A66B-C37FC0FD8993}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56869B9F-D94D-4579-96E7-92E8C7377A0D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2837,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E9795C-B7CC-491F-B13F-BCB84BD60F67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863294E1-D9FA-4D9A-B531-85925D922890}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3137,7 +3143,7 @@
         <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>592</v>
@@ -3146,13 +3152,13 @@
         <v>636983</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3173,13 @@
         <v>1738908</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>1595</v>
@@ -3182,13 +3188,13 @@
         <v>1653164</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>3236</v>
@@ -3197,13 +3203,13 @@
         <v>3392073</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3277,13 @@
         <v>59782</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>56</v>
@@ -3286,13 +3292,13 @@
         <v>60564</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -3301,13 +3307,13 @@
         <v>120346</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3328,13 @@
         <v>484271</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>462</v>
@@ -3337,13 +3343,13 @@
         <v>479286</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>909</v>
@@ -3352,13 +3358,13 @@
         <v>963558</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3432,13 @@
         <v>549569</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>578</v>
@@ -3441,13 +3447,13 @@
         <v>633142</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>1102</v>
@@ -3456,13 +3462,13 @@
         <v>1182711</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,28 +3483,28 @@
         <v>2801691</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>2715</v>
       </c>
       <c r="I14" s="7">
-        <v>2863180</v>
+        <v>2863181</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>5383</v>
@@ -3507,13 +3513,13 @@
         <v>5664871</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,7 +3546,7 @@
         <v>3293</v>
       </c>
       <c r="I15" s="7">
-        <v>3496322</v>
+        <v>3496323</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3588,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2DB7DD-0C99-4FAE-9C4B-617485C70658}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1E417A-9992-452B-AD5B-5A583F762C13}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3605,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3712,13 +3718,13 @@
         <v>133433</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>394</v>
@@ -3727,13 +3733,13 @@
         <v>226646</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>570</v>
@@ -3742,13 +3748,13 @@
         <v>360079</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,10 +3769,10 @@
         <v>395270</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>240</v>
@@ -3897,13 +3903,13 @@
         <v>503223</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3924,13 @@
         <v>1888314</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>2510</v>
@@ -3933,13 +3939,13 @@
         <v>1852953</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>4210</v>
@@ -3948,13 +3954,13 @@
         <v>3741267</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,13 +4028,13 @@
         <v>48394</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -4037,13 +4043,13 @@
         <v>43940</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -4052,13 +4058,13 @@
         <v>92334</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4079,13 @@
         <v>610724</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>933</v>
@@ -4088,13 +4094,13 @@
         <v>664376</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>1546</v>
@@ -4103,10 +4109,10 @@
         <v>1275100</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>280</v>
@@ -4183,7 +4189,7 @@
         <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>822</v>
@@ -4192,13 +4198,13 @@
         <v>523091</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>1321</v>
@@ -4207,13 +4213,13 @@
         <v>955636</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4234,13 @@
         <v>2894309</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>4425</v>
@@ -4243,13 +4249,13 @@
         <v>3098462</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>7236</v>
@@ -4258,13 +4264,13 @@
         <v>5992771</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P57GLOBAL_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57GLOBAL_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDD70611-2561-49E6-882A-0C319225DAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CDC350B-C5FD-42AD-9141-35171F4BA348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7641C83E-8975-4A74-B538-486A2990A2B0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{08C47C18-2091-4599-9677-44296DCD271E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,61 +74,61 @@
     <t>Apoyo bajo</t>
   </si>
   <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
   </si>
   <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,799 +137,799 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2012 (Tasa respuesta: 98,91%)</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2016 (Tasa respuesta: 99,15%)</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
   </si>
   <si>
     <t>16,74%</t>
   </si>
   <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2012 (Tasa respuesta: 98,91%)</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
   </si>
   <si>
     <t>17,64%</t>
   </si>
   <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2016 (Tasa respuesta: 99,15%)</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
     <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2023 (Tasa respuesta: 98,07%)</t>
   </si>
   <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9714C050-488F-4EAA-A7CD-E0080F1A5271}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473032E3-F8D4-4970-ACA1-F49E5438C53C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1459,10 +1459,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>240</v>
+        <v>783</v>
       </c>
       <c r="D4" s="7">
-        <v>242982</v>
+        <v>782119</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1474,10 +1474,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>347</v>
+        <v>1013</v>
       </c>
       <c r="I4" s="7">
-        <v>359214</v>
+        <v>1041359</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1489,10 +1489,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>587</v>
+        <v>1796</v>
       </c>
       <c r="N4" s="7">
-        <v>602195</v>
+        <v>1823478</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1510,10 +1510,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>798</v>
+        <v>255</v>
       </c>
       <c r="D5" s="7">
-        <v>788741</v>
+        <v>249604</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1525,10 +1525,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>944</v>
+        <v>278</v>
       </c>
       <c r="I5" s="7">
-        <v>955899</v>
+        <v>273754</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1540,10 +1540,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1742</v>
+        <v>533</v>
       </c>
       <c r="N5" s="7">
-        <v>1744641</v>
+        <v>523358</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1614,10 +1614,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>170</v>
+        <v>1124</v>
       </c>
       <c r="D7" s="7">
-        <v>173436</v>
+        <v>1146260</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1629,10 +1629,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>214</v>
+        <v>1059</v>
       </c>
       <c r="I7" s="7">
-        <v>231549</v>
+        <v>1091164</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1644,10 +1644,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>384</v>
+        <v>2183</v>
       </c>
       <c r="N7" s="7">
-        <v>404986</v>
+        <v>2237424</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1665,10 +1665,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1477</v>
+        <v>523</v>
       </c>
       <c r="D8" s="7">
-        <v>1518295</v>
+        <v>545471</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1680,10 +1680,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>1337</v>
+        <v>492</v>
       </c>
       <c r="I8" s="7">
-        <v>1352998</v>
+        <v>493383</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1695,10 +1695,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>2814</v>
+        <v>1015</v>
       </c>
       <c r="N8" s="7">
-        <v>2871292</v>
+        <v>1038854</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1769,10 +1769,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>359</v>
       </c>
       <c r="D10" s="7">
-        <v>55516</v>
+        <v>374982</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1784,10 +1784,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>46</v>
+        <v>291</v>
       </c>
       <c r="I10" s="7">
-        <v>50242</v>
+        <v>308144</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1799,10 +1799,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="N10" s="7">
-        <v>105758</v>
+        <v>683126</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1820,10 +1820,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>471</v>
+        <v>165</v>
       </c>
       <c r="D11" s="7">
-        <v>491506</v>
+        <v>172040</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1835,10 +1835,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>406</v>
+        <v>161</v>
       </c>
       <c r="I11" s="7">
-        <v>426170</v>
+        <v>168268</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1850,10 +1850,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>877</v>
+        <v>326</v>
       </c>
       <c r="N11" s="7">
-        <v>917676</v>
+        <v>340308</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1924,10 +1924,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>463</v>
+        <v>2266</v>
       </c>
       <c r="D13" s="7">
-        <v>471934</v>
+        <v>2303361</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1939,10 +1939,10 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>607</v>
+        <v>2363</v>
       </c>
       <c r="I13" s="7">
-        <v>641005</v>
+        <v>2440667</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1954,10 +1954,10 @@
         <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>1070</v>
+        <v>4629</v>
       </c>
       <c r="N13" s="7">
-        <v>1112939</v>
+        <v>4744028</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1975,10 +1975,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2746</v>
+        <v>943</v>
       </c>
       <c r="D14" s="7">
-        <v>2798542</v>
+        <v>967115</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1990,10 +1990,10 @@
         <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>2687</v>
+        <v>931</v>
       </c>
       <c r="I14" s="7">
-        <v>2735067</v>
+        <v>935405</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2005,10 +2005,10 @@
         <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>5433</v>
+        <v>1874</v>
       </c>
       <c r="N14" s="7">
-        <v>5533609</v>
+        <v>1902520</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2092,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56869B9F-D94D-4579-96E7-92E8C7377A0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FFBE7A-FB2B-4E60-AA77-E419458E548D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2210,10 +2210,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>194</v>
+        <v>641</v>
       </c>
       <c r="D4" s="7">
-        <v>208801</v>
+        <v>695041</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>89</v>
@@ -2225,10 +2225,10 @@
         <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>266</v>
+        <v>953</v>
       </c>
       <c r="I4" s="7">
-        <v>286950</v>
+        <v>1022373</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2240,10 +2240,10 @@
         <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>460</v>
+        <v>1594</v>
       </c>
       <c r="N4" s="7">
-        <v>495750</v>
+        <v>1717413</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>95</v>
@@ -2261,10 +2261,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>694</v>
+        <v>247</v>
       </c>
       <c r="D5" s="7">
-        <v>746317</v>
+        <v>260077</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>98</v>
@@ -2276,10 +2276,10 @@
         <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>967</v>
+        <v>280</v>
       </c>
       <c r="I5" s="7">
-        <v>1034458</v>
+        <v>299035</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -2291,10 +2291,10 @@
         <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>1661</v>
+        <v>527</v>
       </c>
       <c r="N5" s="7">
-        <v>1780775</v>
+        <v>559112</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>104</v>
@@ -2365,10 +2365,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>264</v>
+        <v>1232</v>
       </c>
       <c r="D7" s="7">
-        <v>282258</v>
+        <v>1309027</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>107</v>
@@ -2380,10 +2380,10 @@
         <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>264</v>
+        <v>1222</v>
       </c>
       <c r="I7" s="7">
-        <v>291018</v>
+        <v>1320157</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>110</v>
@@ -2395,10 +2395,10 @@
         <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>528</v>
+        <v>2454</v>
       </c>
       <c r="N7" s="7">
-        <v>573276</v>
+        <v>2629184</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>113</v>
@@ -2416,10 +2416,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1577</v>
+        <v>609</v>
       </c>
       <c r="D8" s="7">
-        <v>1665760</v>
+        <v>638991</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>116</v>
@@ -2431,10 +2431,10 @@
         <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>1360</v>
+        <v>402</v>
       </c>
       <c r="I8" s="7">
-        <v>1454173</v>
+        <v>425034</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>119</v>
@@ -2446,10 +2446,10 @@
         <v>121</v>
       </c>
       <c r="M8" s="7">
-        <v>2937</v>
+        <v>1011</v>
       </c>
       <c r="N8" s="7">
-        <v>3119933</v>
+        <v>1064025</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>122</v>
@@ -2520,10 +2520,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="D10" s="7">
-        <v>55326</v>
+        <v>321960</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>125</v>
@@ -2535,10 +2535,10 @@
         <v>127</v>
       </c>
       <c r="H10" s="7">
-        <v>36</v>
+        <v>274</v>
       </c>
       <c r="I10" s="7">
-        <v>42642</v>
+        <v>305779</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>128</v>
@@ -2550,13 +2550,13 @@
         <v>130</v>
       </c>
       <c r="M10" s="7">
-        <v>80</v>
+        <v>567</v>
       </c>
       <c r="N10" s="7">
-        <v>97968</v>
+        <v>627739</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>131</v>
@@ -2571,10 +2571,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>389</v>
+        <v>140</v>
       </c>
       <c r="D11" s="7">
-        <v>420893</v>
+        <v>154259</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>133</v>
@@ -2586,10 +2586,10 @@
         <v>135</v>
       </c>
       <c r="H11" s="7">
-        <v>370</v>
+        <v>132</v>
       </c>
       <c r="I11" s="7">
-        <v>409584</v>
+        <v>146447</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>136</v>
@@ -2601,13 +2601,13 @@
         <v>138</v>
       </c>
       <c r="M11" s="7">
-        <v>759</v>
+        <v>272</v>
       </c>
       <c r="N11" s="7">
-        <v>830477</v>
+        <v>300706</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>139</v>
@@ -2675,10 +2675,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>502</v>
+        <v>2166</v>
       </c>
       <c r="D13" s="7">
-        <v>546384</v>
+        <v>2326027</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>141</v>
@@ -2690,10 +2690,10 @@
         <v>143</v>
       </c>
       <c r="H13" s="7">
-        <v>566</v>
+        <v>2449</v>
       </c>
       <c r="I13" s="7">
-        <v>620610</v>
+        <v>2648309</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>144</v>
@@ -2705,10 +2705,10 @@
         <v>146</v>
       </c>
       <c r="M13" s="7">
-        <v>1068</v>
+        <v>4615</v>
       </c>
       <c r="N13" s="7">
-        <v>1166994</v>
+        <v>4974336</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>147</v>
@@ -2726,10 +2726,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2660</v>
+        <v>996</v>
       </c>
       <c r="D14" s="7">
-        <v>2832970</v>
+        <v>1053327</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>150</v>
@@ -2741,10 +2741,10 @@
         <v>152</v>
       </c>
       <c r="H14" s="7">
-        <v>2697</v>
+        <v>814</v>
       </c>
       <c r="I14" s="7">
-        <v>2898214</v>
+        <v>870515</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>153</v>
@@ -2756,10 +2756,10 @@
         <v>155</v>
       </c>
       <c r="M14" s="7">
-        <v>5357</v>
+        <v>1810</v>
       </c>
       <c r="N14" s="7">
-        <v>5731185</v>
+        <v>1923843</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>156</v>
@@ -2843,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863294E1-D9FA-4D9A-B531-85925D922890}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BB9451-BAB1-4F20-A228-67475EBA2045}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2961,10 +2961,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>177</v>
+        <v>621</v>
       </c>
       <c r="D4" s="7">
-        <v>170001</v>
+        <v>613022</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>160</v>
@@ -2976,10 +2976,10 @@
         <v>162</v>
       </c>
       <c r="H4" s="7">
-        <v>226</v>
+        <v>774</v>
       </c>
       <c r="I4" s="7">
-        <v>255381</v>
+        <v>865604</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>163</v>
@@ -2991,10 +2991,10 @@
         <v>165</v>
       </c>
       <c r="M4" s="7">
-        <v>403</v>
+        <v>1395</v>
       </c>
       <c r="N4" s="7">
-        <v>425382</v>
+        <v>1478626</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>166</v>
@@ -3012,10 +3012,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>580</v>
+        <v>136</v>
       </c>
       <c r="D5" s="7">
-        <v>578511</v>
+        <v>135490</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>169</v>
@@ -3027,10 +3027,10 @@
         <v>171</v>
       </c>
       <c r="H5" s="7">
-        <v>658</v>
+        <v>110</v>
       </c>
       <c r="I5" s="7">
-        <v>730730</v>
+        <v>120507</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>172</v>
@@ -3042,10 +3042,10 @@
         <v>174</v>
       </c>
       <c r="M5" s="7">
-        <v>1238</v>
+        <v>246</v>
       </c>
       <c r="N5" s="7">
-        <v>1309241</v>
+        <v>255997</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>175</v>
@@ -3116,10 +3116,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>296</v>
+        <v>1611</v>
       </c>
       <c r="D7" s="7">
-        <v>319786</v>
+        <v>1713554</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>178</v>
@@ -3131,10 +3131,10 @@
         <v>180</v>
       </c>
       <c r="H7" s="7">
-        <v>296</v>
+        <v>1613</v>
       </c>
       <c r="I7" s="7">
-        <v>317197</v>
+        <v>1689303</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>181</v>
@@ -3146,10 +3146,10 @@
         <v>183</v>
       </c>
       <c r="M7" s="7">
-        <v>592</v>
+        <v>3224</v>
       </c>
       <c r="N7" s="7">
-        <v>636983</v>
+        <v>3402858</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>184</v>
@@ -3167,10 +3167,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1641</v>
+        <v>326</v>
       </c>
       <c r="D8" s="7">
-        <v>1738908</v>
+        <v>345140</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>187</v>
@@ -3182,10 +3182,10 @@
         <v>189</v>
       </c>
       <c r="H8" s="7">
-        <v>1595</v>
+        <v>278</v>
       </c>
       <c r="I8" s="7">
-        <v>1653164</v>
+        <v>281058</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>190</v>
@@ -3197,10 +3197,10 @@
         <v>192</v>
       </c>
       <c r="M8" s="7">
-        <v>3236</v>
+        <v>604</v>
       </c>
       <c r="N8" s="7">
-        <v>3392073</v>
+        <v>626198</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>193</v>
@@ -3271,49 +3271,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>51</v>
+        <v>380</v>
       </c>
       <c r="D10" s="7">
-        <v>59782</v>
+        <v>417243</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>390</v>
+      </c>
+      <c r="I10" s="7">
+        <v>408604</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H10" s="7">
-        <v>56</v>
-      </c>
-      <c r="I10" s="7">
-        <v>60564</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>770</v>
+      </c>
+      <c r="N10" s="7">
+        <v>825848</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="M10" s="7">
-        <v>107</v>
-      </c>
-      <c r="N10" s="7">
-        <v>120346</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,49 +3322,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>447</v>
+        <v>118</v>
       </c>
       <c r="D11" s="7">
-        <v>484271</v>
+        <v>126810</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="7">
+        <v>128</v>
+      </c>
+      <c r="I11" s="7">
+        <v>131246</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>246</v>
+      </c>
+      <c r="N11" s="7">
+        <v>258056</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H11" s="7">
-        <v>462</v>
-      </c>
-      <c r="I11" s="7">
-        <v>479286</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M11" s="7">
-        <v>909</v>
-      </c>
-      <c r="N11" s="7">
-        <v>963558</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,49 +3426,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>524</v>
+        <v>2612</v>
       </c>
       <c r="D13" s="7">
-        <v>549569</v>
+        <v>2743820</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2777</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2963512</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>5389</v>
+      </c>
+      <c r="N13" s="7">
+        <v>5707332</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H13" s="7">
-        <v>578</v>
-      </c>
-      <c r="I13" s="7">
-        <v>633142</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1102</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1182711</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,49 +3477,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2668</v>
+        <v>580</v>
       </c>
       <c r="D14" s="7">
-        <v>2801691</v>
+        <v>607440</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H14" s="7">
+        <v>516</v>
+      </c>
+      <c r="I14" s="7">
+        <v>532810</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1096</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1140250</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="H14" s="7">
-        <v>2715</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2863181</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M14" s="7">
-        <v>5383</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5664871</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,7 +3546,7 @@
         <v>3293</v>
       </c>
       <c r="I15" s="7">
-        <v>3496323</v>
+        <v>3496322</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3594,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1E417A-9992-452B-AD5B-5A583F762C13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489F5A3C-88F0-4BD5-9E96-1E0DC1811E92}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3611,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3712,49 +3712,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>176</v>
+        <v>467</v>
       </c>
       <c r="D4" s="7">
-        <v>133433</v>
+        <v>359825</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H4" s="7">
+        <v>995</v>
+      </c>
+      <c r="I4" s="7">
+        <v>581772</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H4" s="7">
-        <v>394</v>
-      </c>
-      <c r="I4" s="7">
-        <v>226646</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1462</v>
+      </c>
+      <c r="N4" s="7">
+        <v>941597</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="M4" s="7">
-        <v>570</v>
-      </c>
-      <c r="N4" s="7">
-        <v>360079</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,49 +3763,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>498</v>
+        <v>207</v>
       </c>
       <c r="D5" s="7">
-        <v>395270</v>
+        <v>168878</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5" s="7">
+        <v>381</v>
+      </c>
+      <c r="I5" s="7">
+        <v>226008</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H5" s="7">
-        <v>982</v>
-      </c>
-      <c r="I5" s="7">
-        <v>581134</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>588</v>
+      </c>
+      <c r="N5" s="7">
+        <v>394886</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="M5" s="7">
-        <v>1480</v>
-      </c>
-      <c r="N5" s="7">
-        <v>976404</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,49 +3867,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>270</v>
+        <v>1326</v>
       </c>
       <c r="D7" s="7">
-        <v>250719</v>
+        <v>1339087</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>1947</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1358685</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="H7" s="7">
-        <v>367</v>
-      </c>
-      <c r="I7" s="7">
-        <v>252504</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>3273</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2697773</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="M7" s="7">
-        <v>637</v>
-      </c>
-      <c r="N7" s="7">
-        <v>503223</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,43 +3918,43 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1700</v>
+        <v>644</v>
       </c>
       <c r="D8" s="7">
-        <v>1888314</v>
+        <v>799946</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>930</v>
+      </c>
+      <c r="I8" s="7">
+        <v>746772</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="H8" s="7">
-        <v>2510</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1852953</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>1574</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1546717</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="M8" s="7">
-        <v>4210</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3741267</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>261</v>
@@ -4022,10 +4022,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>419</v>
       </c>
       <c r="D10" s="7">
-        <v>48394</v>
+        <v>405995</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>263</v>
@@ -4037,10 +4037,10 @@
         <v>265</v>
       </c>
       <c r="H10" s="7">
-        <v>61</v>
+        <v>599</v>
       </c>
       <c r="I10" s="7">
-        <v>43940</v>
+        <v>404990</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>266</v>
@@ -4052,10 +4052,10 @@
         <v>268</v>
       </c>
       <c r="M10" s="7">
-        <v>114</v>
+        <v>1018</v>
       </c>
       <c r="N10" s="7">
-        <v>92334</v>
+        <v>810985</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>269</v>
@@ -4073,10 +4073,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>613</v>
+        <v>247</v>
       </c>
       <c r="D11" s="7">
-        <v>610724</v>
+        <v>253123</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>272</v>
@@ -4088,10 +4088,10 @@
         <v>274</v>
       </c>
       <c r="H11" s="7">
-        <v>933</v>
+        <v>395</v>
       </c>
       <c r="I11" s="7">
-        <v>664376</v>
+        <v>303326</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>275</v>
@@ -4103,10 +4103,10 @@
         <v>277</v>
       </c>
       <c r="M11" s="7">
-        <v>1546</v>
+        <v>642</v>
       </c>
       <c r="N11" s="7">
-        <v>1275100</v>
+        <v>556449</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>278</v>
@@ -4177,10 +4177,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>499</v>
+        <v>2212</v>
       </c>
       <c r="D13" s="7">
-        <v>432545</v>
+        <v>2104907</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>281</v>
@@ -4189,34 +4189,34 @@
         <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3541</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2345448</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="H13" s="7">
-        <v>822</v>
-      </c>
-      <c r="I13" s="7">
-        <v>523091</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>5753</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4450355</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="M13" s="7">
-        <v>1321</v>
-      </c>
-      <c r="N13" s="7">
-        <v>955636</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>288</v>
@@ -4228,49 +4228,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2811</v>
+        <v>1098</v>
       </c>
       <c r="D14" s="7">
-        <v>2894309</v>
+        <v>1221947</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>1706</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1276105</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="H14" s="7">
-        <v>4425</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3098462</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>2804</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2498052</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="M14" s="7">
-        <v>7236</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5992771</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P57GLOBAL_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57GLOBAL_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CDC350B-C5FD-42AD-9141-35171F4BA348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49395B8B-C2C0-496B-B99B-A6BDA115C435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{08C47C18-2091-4599-9677-44296DCD271E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{617790CF-1007-437E-9356-42C4EDFB26FD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -722,214 +722,214 @@
     <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2023 (Tasa respuesta: 98,07%)</t>
   </si>
   <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473032E3-F8D4-4970-ACA1-F49E5438C53C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102DE2F8-9731-4F08-B439-65E6C94F6FBB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1492,7 +1492,7 @@
         <v>1796</v>
       </c>
       <c r="N4" s="7">
-        <v>1823478</v>
+        <v>1823477</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1594,7 +1594,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1942,7 +1942,7 @@
         <v>2363</v>
       </c>
       <c r="I13" s="7">
-        <v>2440667</v>
+        <v>2440666</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -2044,7 +2044,7 @@
         <v>3294</v>
       </c>
       <c r="I15" s="7">
-        <v>3376072</v>
+        <v>3376071</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2092,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FFBE7A-FB2B-4E60-AA77-E419458E548D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744B9856-7FF7-4BC0-B7E2-00CAEE9EF4EF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2678,7 +2678,7 @@
         <v>2166</v>
       </c>
       <c r="D13" s="7">
-        <v>2326027</v>
+        <v>2326028</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>141</v>
@@ -2744,7 +2744,7 @@
         <v>814</v>
       </c>
       <c r="I14" s="7">
-        <v>870515</v>
+        <v>870516</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>153</v>
@@ -2780,7 +2780,7 @@
         <v>3162</v>
       </c>
       <c r="D15" s="7">
-        <v>3379354</v>
+        <v>3379355</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2795,7 +2795,7 @@
         <v>3263</v>
       </c>
       <c r="I15" s="7">
-        <v>3518824</v>
+        <v>3518825</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2843,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BB9451-BAB1-4F20-A228-67475EBA2045}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2E7E9B-9DE8-4E39-9FDB-4AE91BCF7FD3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3149,7 +3149,7 @@
         <v>3224</v>
       </c>
       <c r="N7" s="7">
-        <v>3402858</v>
+        <v>3402857</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>184</v>
@@ -3251,7 +3251,7 @@
         <v>3828</v>
       </c>
       <c r="N9" s="7">
-        <v>4029056</v>
+        <v>4029055</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3495,7 +3495,7 @@
         <v>516</v>
       </c>
       <c r="I14" s="7">
-        <v>532810</v>
+        <v>532811</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>220</v>
@@ -3546,7 +3546,7 @@
         <v>3293</v>
       </c>
       <c r="I15" s="7">
-        <v>3496322</v>
+        <v>3496323</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3594,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489F5A3C-88F0-4BD5-9E96-1E0DC1811E92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D648D4-D501-4CC5-9F58-56DDCD4F5ACD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3715,7 +3715,7 @@
         <v>467</v>
       </c>
       <c r="D4" s="7">
-        <v>359825</v>
+        <v>337137</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>227</v>
@@ -3730,7 +3730,7 @@
         <v>995</v>
       </c>
       <c r="I4" s="7">
-        <v>581772</v>
+        <v>520029</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>230</v>
@@ -3745,7 +3745,7 @@
         <v>1462</v>
       </c>
       <c r="N4" s="7">
-        <v>941597</v>
+        <v>857166</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>233</v>
@@ -3766,7 +3766,7 @@
         <v>207</v>
       </c>
       <c r="D5" s="7">
-        <v>168878</v>
+        <v>165434</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>236</v>
@@ -3781,7 +3781,7 @@
         <v>381</v>
       </c>
       <c r="I5" s="7">
-        <v>226008</v>
+        <v>209617</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>239</v>
@@ -3796,7 +3796,7 @@
         <v>588</v>
       </c>
       <c r="N5" s="7">
-        <v>394886</v>
+        <v>375051</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>242</v>
@@ -3817,7 +3817,7 @@
         <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>528703</v>
+        <v>502571</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3832,7 +3832,7 @@
         <v>1376</v>
       </c>
       <c r="I6" s="7">
-        <v>807780</v>
+        <v>729646</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3847,7 +3847,7 @@
         <v>2050</v>
       </c>
       <c r="N6" s="7">
-        <v>1336483</v>
+        <v>1232217</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3870,7 +3870,7 @@
         <v>1326</v>
       </c>
       <c r="D7" s="7">
-        <v>1339087</v>
+        <v>1267954</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>245</v>
@@ -3885,7 +3885,7 @@
         <v>1947</v>
       </c>
       <c r="I7" s="7">
-        <v>1358685</v>
+        <v>1225904</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>248</v>
@@ -3900,7 +3900,7 @@
         <v>3273</v>
       </c>
       <c r="N7" s="7">
-        <v>2697773</v>
+        <v>2493858</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>251</v>
@@ -3921,7 +3921,7 @@
         <v>644</v>
       </c>
       <c r="D8" s="7">
-        <v>799946</v>
+        <v>999637</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>254</v>
@@ -3936,7 +3936,7 @@
         <v>930</v>
       </c>
       <c r="I8" s="7">
-        <v>746772</v>
+        <v>775795</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>257</v>
@@ -3951,7 +3951,7 @@
         <v>1574</v>
       </c>
       <c r="N8" s="7">
-        <v>1546717</v>
+        <v>1775432</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>260</v>
@@ -3972,7 +3972,7 @@
         <v>1970</v>
       </c>
       <c r="D9" s="7">
-        <v>2139033</v>
+        <v>2267591</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3987,7 +3987,7 @@
         <v>2877</v>
       </c>
       <c r="I9" s="7">
-        <v>2105457</v>
+        <v>2001699</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4002,7 +4002,7 @@
         <v>4847</v>
       </c>
       <c r="N9" s="7">
-        <v>4244490</v>
+        <v>4269290</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4025,7 +4025,7 @@
         <v>419</v>
       </c>
       <c r="D10" s="7">
-        <v>405995</v>
+        <v>386267</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>263</v>
@@ -4040,7 +4040,7 @@
         <v>599</v>
       </c>
       <c r="I10" s="7">
-        <v>404990</v>
+        <v>372195</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>266</v>
@@ -4055,7 +4055,7 @@
         <v>1018</v>
       </c>
       <c r="N10" s="7">
-        <v>810985</v>
+        <v>758463</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>269</v>
@@ -4076,7 +4076,7 @@
         <v>247</v>
       </c>
       <c r="D11" s="7">
-        <v>253123</v>
+        <v>247458</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>272</v>
@@ -4091,7 +4091,7 @@
         <v>395</v>
       </c>
       <c r="I11" s="7">
-        <v>303326</v>
+        <v>283099</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>275</v>
@@ -4106,7 +4106,7 @@
         <v>642</v>
       </c>
       <c r="N11" s="7">
-        <v>556449</v>
+        <v>530556</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>278</v>
@@ -4127,7 +4127,7 @@
         <v>666</v>
       </c>
       <c r="D12" s="7">
-        <v>659118</v>
+        <v>633725</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4142,7 +4142,7 @@
         <v>994</v>
       </c>
       <c r="I12" s="7">
-        <v>708316</v>
+        <v>655294</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4157,7 +4157,7 @@
         <v>1660</v>
       </c>
       <c r="N12" s="7">
-        <v>1367434</v>
+        <v>1289019</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4180,7 +4180,7 @@
         <v>2212</v>
       </c>
       <c r="D13" s="7">
-        <v>2104907</v>
+        <v>1991359</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>281</v>
@@ -4189,37 +4189,37 @@
         <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>3541</v>
       </c>
       <c r="I13" s="7">
-        <v>2345448</v>
+        <v>2118128</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>5753</v>
       </c>
       <c r="N13" s="7">
-        <v>4450355</v>
+        <v>4109486</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,43 +4231,43 @@
         <v>1098</v>
       </c>
       <c r="D14" s="7">
-        <v>1221947</v>
+        <v>1412528</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>1706</v>
       </c>
       <c r="I14" s="7">
-        <v>1276105</v>
+        <v>1268511</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>2804</v>
       </c>
       <c r="N14" s="7">
-        <v>2498052</v>
+        <v>2681039</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>296</v>
@@ -4282,7 +4282,7 @@
         <v>3310</v>
       </c>
       <c r="D15" s="7">
-        <v>3326854</v>
+        <v>3403887</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4297,7 +4297,7 @@
         <v>5247</v>
       </c>
       <c r="I15" s="7">
-        <v>3621553</v>
+        <v>3386639</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4312,7 +4312,7 @@
         <v>8557</v>
       </c>
       <c r="N15" s="7">
-        <v>6948407</v>
+        <v>6790525</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
